--- a/data_year/zb/农业/乡村户数和乡村人口.xlsx
+++ b/data_year/zb/农业/乡村户数和乡村人口.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,169 +448,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92819.73820000001</v>
+        <v>96618.9387</v>
       </c>
       <c r="C2" t="n">
-        <v>24148.7328</v>
+        <v>26384.6249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93382.88</v>
+        <v>96808.57864000001</v>
       </c>
       <c r="C3" t="n">
-        <v>24432.23</v>
+        <v>26606.96984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>93502.5472</v>
-      </c>
-      <c r="C4" t="n">
-        <v>24569.363</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>93750.62</v>
-      </c>
-      <c r="C5" t="n">
-        <v>24793.14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>94253.66</v>
-      </c>
-      <c r="C6" t="n">
-        <v>24971.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>94907.45299999999</v>
-      </c>
-      <c r="C7" t="n">
-        <v>25222.6229</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>94813.30869999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25268.39915</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>95094.72100000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25434.907</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>95579.6341</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25663.5274</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>96110.50049999999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25975.6661</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>96618.9387</v>
-      </c>
-      <c r="C12" t="n">
-        <v>26384.6249</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>96808.57864000001</v>
-      </c>
-      <c r="C13" t="n">
-        <v>26606.96984</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
           <t>2012年</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B4" t="n">
         <v>97065.63370000001</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C4" t="n">
         <v>26802.321</v>
       </c>
     </row>
